--- a/medicine/Mort/Terrorisme_en_2011/Terrorisme_en_2011.xlsx
+++ b/medicine/Mort/Terrorisme_en_2011/Terrorisme_en_2011.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chronologie du terrorisme
@@ -495,7 +507,7 @@
 2014
 2015
 ►►
-L'année 2011 est marquée par 5 065 attentats ayant fait 8 176 victimes[1].
+L'année 2011 est marquée par 5 065 attentats ayant fait 8 176 victimes.
 </t>
         </is>
       </c>
@@ -526,36 +538,310 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-1er janvier 2011, Égypte : Un attentat à la voiture piégée contre une église copte à Alexandrie fait 21 morts et 70 blessés[2].
-24 janvier 2011, Russie : Attentat à l'aéroport Domodedovo 35 morts et 180 blessés.
-Février
-Mars
-21 mars 2011, Allemagne : Devant l'aéroport de Francfort, un islamiste tire sur un car transportant des soldats américains, 2 morts[3]
-23 mars 2011, Israël : Attentat à la gare routière de Jérusalem, une bombe explose près d'un autobus et fait 2 morts et 31 blessés[4]. L'une des victimes, âgée de 14 ans, meurt des suites de sa blessure, six ans après.
-Avril
-7 avril 2011, Israël : Le Hamas tire un missile antichar sur un bus israélien à la frontière de la Bande de Gaza, tuant un adolescent de 16 ans et blessant le conducteur du bus[5],[6].
-11 avril 2011, Biélorussie : L'explosion d'une bombe à la station Oktiabrskaia dans le métro de Minsk tue 12 personnes et en blesse une centaine[7].
-28 avril 2011  Maroc : Attentat à Marrakech sur la terrasse d'un café nommé Argana, une bombe explose, tuant 17 personnes et faisant 20 blessés.
-Mai
-13 mai 2011, Pakistan : Au moins 80 morts, dont de nombreux cadets d'un groupe paramilitaire de la police, dans un double attentat à Shabqadar revendiqué par le Mouvement des Talibans du Pakistan.
-Juin
-13 juin 2011, Pakistan : Un kamikaze déclenche ses explosifs, en tentant d'entrer dans une banque d'un quartier commercial d'Islamabad.
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er janvier 2011, Égypte : Un attentat à la voiture piégée contre une église copte à Alexandrie fait 21 morts et 70 blessés.
+24 janvier 2011, Russie : Attentat à l'aéroport Domodedovo 35 morts et 180 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2011</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>21 mars 2011, Allemagne : Devant l'aéroport de Francfort, un islamiste tire sur un car transportant des soldats américains, 2 morts
+23 mars 2011, Israël : Attentat à la gare routière de Jérusalem, une bombe explose près d'un autobus et fait 2 morts et 31 blessés. L'une des victimes, âgée de 14 ans, meurt des suites de sa blessure, six ans après.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2011</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>7 avril 2011, Israël : Le Hamas tire un missile antichar sur un bus israélien à la frontière de la Bande de Gaza, tuant un adolescent de 16 ans et blessant le conducteur du bus,.
+11 avril 2011, Biélorussie : L'explosion d'une bombe à la station Oktiabrskaia dans le métro de Minsk tue 12 personnes et en blesse une centaine.
+28 avril 2011  Maroc : Attentat à Marrakech sur la terrasse d'un café nommé Argana, une bombe explose, tuant 17 personnes et faisant 20 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2011</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>13 mai 2011, Pakistan : Au moins 80 morts, dont de nombreux cadets d'un groupe paramilitaire de la police, dans un double attentat à Shabqadar revendiqué par le Mouvement des Talibans du Pakistan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2011</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>13 juin 2011, Pakistan : Un kamikaze déclenche ses explosifs, en tentant d'entrer dans une banque d'un quartier commercial d'Islamabad.
 19 juin 2011, Irak : Attentat contre un convoi de l'ambassade de France à Bagdad.
 21 juin 2011, Afghanistan : 2 civils tués par un attentat visant un gouverneur.
 21 juin 2011, Irak : 25 tués dans un double attentat au sud de Bagdad.
-22 juin 2011, Somalie : Un attentat à la bombe fait 4 morts et 7 blessés à Mogadiscio.
-Juillet
-22 juillet 2011, Norvège : Un double attentat, l'un à la bombe fait au moins 8 morts et plusieurs blessés à Oslo, l'autre, une fusillade déclenchée sur l'île d'Utoeya fait 68 morts. L'unique auteur de ces attentats : le terroriste d'ultra-droite Anders Behring Breivik.
-Août
-15 août 2011, Irak : 74 morts et plus de 300 blessés dans dix villes irakiennes lors d'attaques simultanées[8].
-25 août 2011, Mexique : Attaque au casino Royale de Monterrey, attribuée au cartel de Los Zetas, à l'aide d'armes de guerre, de grenades, puis incendie, 53 morts.
-Septembre
-Octobre
-29 octobre 2011, Afghanistan : 17 morts, dont 13 soldats américains tués à Kaboul dans un attentat contre leur camion ; quelques jours avant 3 militaires australiens ont été aussi tués[9].
-Novembre
-Décembre
-13 décembre 2011, Belgique : Nordine Amrani tue 5 personnes, dont lui-même, et en blesse plus de 120 Place Saint-Lambert à Liège à l'aide de grenades et d'un FN FAL.
+22 juin 2011, Somalie : Un attentat à la bombe fait 4 morts et 7 blessés à Mogadiscio.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2011</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>22 juillet 2011, Norvège : Un double attentat, l'un à la bombe fait au moins 8 morts et plusieurs blessés à Oslo, l'autre, une fusillade déclenchée sur l'île d'Utoeya fait 68 morts. L'unique auteur de ces attentats : le terroriste d'ultra-droite Anders Behring Breivik.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2011</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>15 août 2011, Irak : 74 morts et plus de 300 blessés dans dix villes irakiennes lors d'attaques simultanées.
+25 août 2011, Mexique : Attaque au casino Royale de Monterrey, attribuée au cartel de Los Zetas, à l'aide d'armes de guerre, de grenades, puis incendie, 53 morts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2011</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>29 octobre 2011, Afghanistan : 17 morts, dont 13 soldats américains tués à Kaboul dans un attentat contre leur camion ; quelques jours avant 3 militaires australiens ont été aussi tués.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2011</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>13 décembre 2011, Belgique : Nordine Amrani tue 5 personnes, dont lui-même, et en blesse plus de 120 Place Saint-Lambert à Liège à l'aide de grenades et d'un FN FAL.
 13 décembre 2011, Italie : Attentat à connotation raciste à Florence. Gianluca Casseri, sympathisant de l'extrême droite italienne, tire à l'aide d'un revolver .357 Magnum sur des vendeurs ambulants sénégalais avant de retourner son arme contre lui, faisant 3 morts (dont le tireur) et 3 blessés.
 25 décembre 2011 : Attentats contre des églises du Nigeria revendiqués par Boko Haram.</t>
         </is>
